--- a/acoustic_reference.xlsx
+++ b/acoustic_reference.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingliu/Documents/work/Compling/Phonemic learning/stimuli/v03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5AB752-2153-7B42-960F-F0792DDC1E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7ACA2E-D037-3443-BBA9-6A9CB6661025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{64C97F2A-E00F-AF40-BE4F-6FD097491D15}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{64C97F2A-E00F-AF40-BE4F-6FD097491D15}"/>
   </bookViews>
   <sheets>
     <sheet name="acoustic_vector" sheetId="2" r:id="rId1"/>
     <sheet name="vowel_ref_eng" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">acoustic_vector!$A$1:$I$19</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">acoustic_vector!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>Column1</t>
   </si>
@@ -107,21 +107,12 @@
     <t>standard deviation</t>
   </si>
   <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>uniform</t>
-  </si>
-  <si>
     <t>skewness</t>
   </si>
   <si>
     <t>kurtosis</t>
   </si>
   <si>
-    <t>0,1</t>
-  </si>
-  <si>
     <t>tot_dur</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t/>
   </si>
   <si>
-    <t>f4</t>
-  </si>
-  <si>
     <t>f1b</t>
   </si>
   <si>
@@ -167,12 +155,6 @@
     <t>bandwidth of f3</t>
   </si>
   <si>
-    <t>f4b</t>
-  </si>
-  <si>
-    <t>bandwidth of f4</t>
-  </si>
-  <si>
     <t>f1</t>
   </si>
   <si>
@@ -224,12 +206,6 @@
     <t>training</t>
   </si>
   <si>
-    <t>vow_int</t>
-  </si>
-  <si>
-    <t>vow_dur</t>
-  </si>
-  <si>
     <t>vocalic intensity</t>
   </si>
   <si>
@@ -237,6 +213,12 @@
   </si>
   <si>
     <t>200,400ms</t>
+  </si>
+  <si>
+    <t>voc_int</t>
+  </si>
+  <si>
+    <t>voc_dur</t>
   </si>
 </sst>
 </file>
@@ -278,9 +260,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -338,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B53A7632-09A2-0546-8699-B23BEAADD2A3}" name="acoustic_vector" displayName="acoustic_vector" ref="A1:I19" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I19" xr:uid="{B53A7632-09A2-0546-8699-B23BEAADD2A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B53A7632-09A2-0546-8699-B23BEAADD2A3}" name="acoustic_vector" displayName="acoustic_vector" ref="A1:I17" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I17" xr:uid="{B53A7632-09A2-0546-8699-B23BEAADD2A3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F659B78D-E2CE-AB49-90D0-4FB7F26AF41A}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{C680FA15-061D-BD4E-8A55-D44BED7A4EB1}" uniqueName="2" name="element" queryTableFieldId="2" dataDxfId="5"/>
@@ -672,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414D1DB3-CA5F-2542-B7CA-BF820965A9AB}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,16 +705,16 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2">
@@ -742,10 +723,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -753,16 +734,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
@@ -771,10 +752,10 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -782,17 +763,17 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
       </c>
       <c r="F4">
         <v>0.30329088990176978</v>
@@ -800,10 +781,10 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -811,17 +792,17 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0.54470246591414817</v>
@@ -829,10 +810,10 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -840,17 +821,17 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F6">
         <v>0.96684151411923858</v>
@@ -858,28 +839,28 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+      <c r="E7" t="s">
+        <v>23</v>
       </c>
       <c r="F7">
         <v>0.30215498162612864</v>
@@ -887,28 +868,28 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
         <v>80</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
+      <c r="E8" t="s">
+        <v>23</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -916,28 +897,28 @@
       <c r="G8">
         <v>80</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
         <v>300</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
+      <c r="E9" t="s">
+        <v>23</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -945,28 +926,28 @@
       <c r="G9">
         <v>300</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
       <c r="F10">
         <v>200</v>
@@ -974,28 +955,28 @@
       <c r="G10">
         <v>400</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
         <v>200</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1003,28 +984,28 @@
       <c r="G11">
         <v>200</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1032,97 +1013,97 @@
       <c r="G12">
         <v>3200</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4000</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>90</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>110</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1130,28 +1111,28 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>170</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1159,86 +1140,28 @@
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>250</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>300</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
         <v>2500</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1262,87 +1185,87 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1">
         <v>437</v>
       </c>
       <c r="C2">
         <v>483</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>536</v>
       </c>
       <c r="E2">
         <v>731</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>459</v>
       </c>
       <c r="G2">
         <v>519</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>555</v>
       </c>
       <c r="I2">
         <v>781</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="1"/>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1">
         <v>2761</v>
       </c>
       <c r="C3">
         <v>2365</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>2530</v>
       </c>
       <c r="E3">
         <v>2058</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1105</v>
       </c>
       <c r="G3">
         <v>1225</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>1035</v>
       </c>
       <c r="I3">
@@ -1351,27 +1274,27 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1">
         <v>3372</v>
       </c>
       <c r="C4">
         <v>3053</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>3047</v>
       </c>
       <c r="E4">
         <v>2979</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2735</v>
       </c>
       <c r="G4">
         <v>2827</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>2828</v>
       </c>
       <c r="I4">
@@ -1380,27 +1303,27 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1">
         <v>4352</v>
       </c>
       <c r="C5">
         <v>4334</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>4319</v>
       </c>
       <c r="E5">
         <v>4294</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>4115</v>
       </c>
       <c r="G5">
         <v>4052</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>3972</v>
       </c>
       <c r="I5">
